--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H2">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I2">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J2">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N2">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O2">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P2">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q2">
-        <v>0.5453559336826667</v>
+        <v>3.440796862326</v>
       </c>
       <c r="R2">
-        <v>4.908203403144</v>
+        <v>30.967171760934</v>
       </c>
       <c r="S2">
-        <v>4.144324305779357E-06</v>
+        <v>2.191339667371892E-05</v>
       </c>
       <c r="T2">
-        <v>4.144324305779357E-06</v>
+        <v>2.191339667371892E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H3">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I3">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J3">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N3">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q3">
-        <v>107.2703584132694</v>
+        <v>345.6635109927176</v>
       </c>
       <c r="R3">
-        <v>965.4332257194242</v>
+        <v>3110.971598934459</v>
       </c>
       <c r="S3">
-        <v>0.0008151798233123452</v>
+        <v>0.002201426569220162</v>
       </c>
       <c r="T3">
-        <v>0.0008151798233123452</v>
+        <v>0.002201426569220162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H4">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I4">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J4">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N4">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q4">
-        <v>549.7449118595295</v>
+        <v>983.6058220202663</v>
       </c>
       <c r="R4">
-        <v>4947.704206735764</v>
+        <v>8852.452398182397</v>
       </c>
       <c r="S4">
-        <v>0.004177677475356295</v>
+        <v>0.00626428859678125</v>
       </c>
       <c r="T4">
-        <v>0.004177677475356295</v>
+        <v>0.006264288596781251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.134978</v>
+        <v>3.711779</v>
       </c>
       <c r="H5">
-        <v>6.404934000000001</v>
+        <v>11.135337</v>
       </c>
       <c r="I5">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749102</v>
       </c>
       <c r="J5">
-        <v>0.005239957927637477</v>
+        <v>0.008539583513749104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N5">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q5">
-        <v>31.97087211269667</v>
+        <v>8.157860476829665</v>
       </c>
       <c r="R5">
-        <v>287.73784901427</v>
+        <v>73.42074429146699</v>
       </c>
       <c r="S5">
-        <v>0.0002429563046630576</v>
+        <v>5.195495107397158E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002429563046630576</v>
+        <v>5.195495107397159E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>3.967564</v>
       </c>
       <c r="I6">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J6">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N6">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O6">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P6">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q6">
-        <v>0.3378230860248889</v>
+        <v>1.225969340872</v>
       </c>
       <c r="R6">
-        <v>3.040407774224</v>
+        <v>11.033724067848</v>
       </c>
       <c r="S6">
-        <v>2.56721957165135E-06</v>
+        <v>7.807828695293812E-06</v>
       </c>
       <c r="T6">
-        <v>2.56721957165135E-06</v>
+        <v>7.807828695293815E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3.967564</v>
       </c>
       <c r="I7">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J7">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N7">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q7">
-        <v>66.44908633056713</v>
+        <v>123.1612570260164</v>
       </c>
       <c r="R7">
-        <v>598.0417769751041</v>
+        <v>1108.451313234148</v>
       </c>
       <c r="S7">
-        <v>0.0005049666585948304</v>
+        <v>0.0007843768719960088</v>
       </c>
       <c r="T7">
-        <v>0.0005049666585948304</v>
+        <v>0.000784376871996009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.967564</v>
       </c>
       <c r="I8">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J8">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N8">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q8">
-        <v>340.5418574925271</v>
+        <v>350.4625903677648</v>
       </c>
       <c r="R8">
-        <v>3064.876717432744</v>
+        <v>3154.163313309884</v>
       </c>
       <c r="S8">
-        <v>0.002587880336446015</v>
+        <v>0.002231990457244338</v>
       </c>
       <c r="T8">
-        <v>0.002587880336446015</v>
+        <v>0.002231990457244339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.967564</v>
       </c>
       <c r="I9">
-        <v>0.003245914545756296</v>
+        <v>0.00304268690962334</v>
       </c>
       <c r="J9">
-        <v>0.003245914545756296</v>
+        <v>0.003042686909623341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N9">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q9">
-        <v>19.80449466660222</v>
+        <v>2.906677502880444</v>
       </c>
       <c r="R9">
-        <v>178.24045199942</v>
+        <v>26.160097525924</v>
       </c>
       <c r="S9">
-        <v>0.0001505003311437994</v>
+        <v>1.851175168769934E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001505003311437994</v>
+        <v>1.851175168769935E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H10">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I10">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J10">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N10">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O10">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P10">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q10">
-        <v>20.67246397164444</v>
+        <v>75.954773969158</v>
       </c>
       <c r="R10">
-        <v>186.0521757448</v>
+        <v>683.5929657224219</v>
       </c>
       <c r="S10">
-        <v>0.0001570962918098293</v>
+        <v>0.0004837330298318326</v>
       </c>
       <c r="T10">
-        <v>0.0001570962918098294</v>
+        <v>0.0004837330298318328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H11">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I11">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J11">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N11">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q11">
-        <v>4066.229929046756</v>
+        <v>7630.439952531528</v>
       </c>
       <c r="R11">
-        <v>36596.06936142081</v>
+        <v>68673.95957278374</v>
       </c>
       <c r="S11">
-        <v>0.03090050824979508</v>
+        <v>0.04859596894708341</v>
       </c>
       <c r="T11">
-        <v>0.03090050824979508</v>
+        <v>0.04859596894708342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H12">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I12">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J12">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N12">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q12">
-        <v>20838.83420368876</v>
+        <v>21712.86503551188</v>
       </c>
       <c r="R12">
-        <v>187549.5078331988</v>
+        <v>195415.7853196069</v>
       </c>
       <c r="S12">
-        <v>0.1583605894067463</v>
+        <v>0.1382826837747254</v>
       </c>
       <c r="T12">
-        <v>0.1583605894067463</v>
+        <v>0.1382826837747255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.92926666666666</v>
+        <v>81.93664033333333</v>
       </c>
       <c r="H13">
-        <v>242.7878</v>
+        <v>245.809921</v>
       </c>
       <c r="I13">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636783</v>
       </c>
       <c r="J13">
-        <v>0.1986277856014851</v>
+        <v>0.1885092789636784</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N13">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q13">
-        <v>1211.899717362111</v>
+        <v>180.0828335360234</v>
       </c>
       <c r="R13">
-        <v>10907.097456259</v>
+        <v>1620.745501824211</v>
       </c>
       <c r="S13">
-        <v>0.009209591653133896</v>
+        <v>0.001146893212037661</v>
       </c>
       <c r="T13">
-        <v>0.009209591653133897</v>
+        <v>0.001146893212037662</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H14">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I14">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J14">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N14">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O14">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P14">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q14">
-        <v>0.1883519581777778</v>
+        <v>0.38819573239</v>
       </c>
       <c r="R14">
-        <v>1.6951676236</v>
+        <v>3.49376159151</v>
       </c>
       <c r="S14">
-        <v>1.43134336697529E-06</v>
+        <v>2.472301449716021E-06</v>
       </c>
       <c r="T14">
-        <v>1.431343366975291E-06</v>
+        <v>2.472301449716021E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H15">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I15">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J15">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N15">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q15">
-        <v>37.04843170062222</v>
+        <v>38.99826266395944</v>
       </c>
       <c r="R15">
-        <v>333.4358853056</v>
+        <v>350.984363975635</v>
       </c>
       <c r="S15">
-        <v>0.0002815422121678754</v>
+        <v>0.0002483681639849907</v>
       </c>
       <c r="T15">
-        <v>0.0002815422121678754</v>
+        <v>0.0002483681639849908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H16">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I16">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J16">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N16">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q16">
-        <v>189.8677987196222</v>
+        <v>110.9718468541339</v>
       </c>
       <c r="R16">
-        <v>1708.8101884766</v>
+        <v>998.7466216872049</v>
       </c>
       <c r="S16">
-        <v>0.001442862696670357</v>
+        <v>0.0007067461977647617</v>
       </c>
       <c r="T16">
-        <v>0.001442862696670358</v>
+        <v>0.0007067461977647619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7373666666666666</v>
+        <v>0.4187683333333334</v>
       </c>
       <c r="H17">
-        <v>2.2121</v>
+        <v>1.256305</v>
       </c>
       <c r="I17">
-        <v>0.001809747131153398</v>
+        <v>0.0009634482967368267</v>
       </c>
       <c r="J17">
-        <v>0.001809747131153399</v>
+        <v>0.0009634482967368269</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N17">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q17">
-        <v>11.04191958894444</v>
+        <v>0.9203817456394444</v>
       </c>
       <c r="R17">
-        <v>99.3772763005</v>
+        <v>8.283435710754999</v>
       </c>
       <c r="S17">
-        <v>8.391087894819052E-05</v>
+        <v>5.861633537358219E-06</v>
       </c>
       <c r="T17">
-        <v>8.391087894819053E-05</v>
+        <v>5.86163353735822E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H18">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I18">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J18">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N18">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O18">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P18">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q18">
-        <v>56.22924079121511</v>
+        <v>256.090890600054</v>
       </c>
       <c r="R18">
-        <v>506.063167120936</v>
+        <v>2304.818015400486</v>
       </c>
       <c r="S18">
-        <v>0.0004273029684172289</v>
+        <v>0.001630965585818197</v>
       </c>
       <c r="T18">
-        <v>0.0004273029684172289</v>
+        <v>0.001630965585818197</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H19">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I19">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J19">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N19">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O19">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P19">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q19">
-        <v>11060.17270638047</v>
+        <v>25726.96962942058</v>
       </c>
       <c r="R19">
-        <v>99541.55435742428</v>
+        <v>231542.7266647852</v>
       </c>
       <c r="S19">
-        <v>0.08404958989561813</v>
+        <v>0.1638473043483026</v>
       </c>
       <c r="T19">
-        <v>0.08404958989561813</v>
+        <v>0.1638473043483026</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H20">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I20">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J20">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N20">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O20">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P20">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q20">
-        <v>56681.76893933242</v>
+        <v>73207.60307549436</v>
       </c>
       <c r="R20">
-        <v>510135.9204539917</v>
+        <v>658868.4276794492</v>
       </c>
       <c r="S20">
-        <v>0.4307418663689345</v>
+        <v>0.4662371275940438</v>
       </c>
       <c r="T20">
-        <v>0.4307418663689345</v>
+        <v>0.466237127594044</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>220.1281486666667</v>
+        <v>276.259491</v>
       </c>
       <c r="H21">
-        <v>660.384446</v>
+        <v>828.7784730000001</v>
       </c>
       <c r="I21">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790661</v>
       </c>
       <c r="J21">
-        <v>0.5402689103597607</v>
+        <v>0.6355822894790663</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N21">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O21">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P21">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q21">
-        <v>3296.375367533848</v>
+        <v>607.171489191027</v>
       </c>
       <c r="R21">
-        <v>29667.37830780463</v>
+        <v>5464.543402719243</v>
       </c>
       <c r="S21">
-        <v>0.02505015112679077</v>
+        <v>0.00386689195090152</v>
       </c>
       <c r="T21">
-        <v>0.02505015112679078</v>
+        <v>0.003866891950901521</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H22">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I22">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J22">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N22">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O22">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P22">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q22">
-        <v>26.10315975973378</v>
+        <v>65.82263746775399</v>
       </c>
       <c r="R22">
-        <v>234.928437837604</v>
+        <v>592.403737209786</v>
       </c>
       <c r="S22">
-        <v>0.0001983657878615004</v>
+        <v>0.0004192045106569346</v>
       </c>
       <c r="T22">
-        <v>0.0001983657878615004</v>
+        <v>0.0004192045106569347</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H23">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I23">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J23">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N23">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O23">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P23">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q23">
-        <v>5134.436301512399</v>
+        <v>6612.562403502029</v>
       </c>
       <c r="R23">
-        <v>46209.92671361159</v>
+        <v>59513.06163151826</v>
       </c>
       <c r="S23">
-        <v>0.0390181308143893</v>
+        <v>0.04211341406528264</v>
       </c>
       <c r="T23">
-        <v>0.0390181308143893</v>
+        <v>0.04211341406528265</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H24">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I24">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J24">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N24">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O24">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P24">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q24">
-        <v>26313.23576965081</v>
+        <v>18816.43468781971</v>
       </c>
       <c r="R24">
-        <v>236819.1219268573</v>
+        <v>169347.9121903773</v>
       </c>
       <c r="S24">
-        <v>0.199962218853057</v>
+        <v>0.1198361931255014</v>
       </c>
       <c r="T24">
-        <v>0.199962218853057</v>
+        <v>0.1198361931255014</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>102.1895396666667</v>
+        <v>71.006541</v>
       </c>
       <c r="H25">
-        <v>306.568619</v>
+        <v>213.019623</v>
       </c>
       <c r="I25">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="J25">
-        <v>0.250807684434207</v>
+        <v>0.1633627128371462</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N25">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O25">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P25">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q25">
-        <v>1530.2680889163</v>
+        <v>156.060329674877</v>
       </c>
       <c r="R25">
-        <v>13772.4128002467</v>
+        <v>1404.542967073893</v>
       </c>
       <c r="S25">
-        <v>0.01162896897889921</v>
+        <v>0.0009939011357052662</v>
       </c>
       <c r="T25">
-        <v>0.01162896897889921</v>
+        <v>0.0009939011357052662</v>
       </c>
     </row>
   </sheetData>
